--- a/simulation/export/charts.xlsx
+++ b/simulation/export/charts.xlsx
@@ -8,75 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\simmer-simulation\simulation\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B7968-6523-4901-B919-FD96B273D4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B47DF1B-0E58-4383-A548-1DF9BAE51182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="discrete_events" sheetId="1" r:id="rId1"/>
+    <sheet name="Metoda 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metoda 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>drivers</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>avg_waiting_time</t>
@@ -84,12 +42,27 @@
   <si>
     <t>avg_activity_time</t>
   </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>avg_activity time for every L</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>avg_activity for L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -97,13 +70,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -181,7 +179,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t> </a:t>
+              <a:t> i parametru L</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -194,26 +192,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -222,15 +200,12 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>L=2</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
             <a:effectLst>
               <a:softEdge rad="0"/>
             </a:effectLst>
@@ -238,24 +213,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>discrete_events!$B$2:$B$10</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Metoda 1'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -284,41 +246,41 @@
                 <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>discrete_events!$C$2:$C$10</c:f>
+              <c:f>'Metoda 1'!$C$11:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.6386286563071799</c:v>
+                  <c:v>6.3129502180504504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0523216540849498</c:v>
+                  <c:v>12.3436472521316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.311476825517101</c:v>
+                  <c:v>12.415711775157799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.7901342630456</c:v>
+                  <c:v>18.609201213442699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.355809251182698</c:v>
+                  <c:v>21.697709963302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.539731363924101</c:v>
+                  <c:v>27.4545371589588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.418550742219001</c:v>
+                  <c:v>33.447280892523601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.8175311599366</c:v>
+                  <c:v>34.619547847606903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.687262260678096</c:v>
+                  <c:v>30.976145065733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +288,111 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F206-4E61-8867-119C33736F22}"/>
+              <c16:uniqueId val="{00000005-4A01-4131-80C7-7445B6B03AB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L=5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metoda 1'!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.9110733854641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.3949442984452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.088510694507999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.833242503681401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.352588361382203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.7998758288511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.463024140450202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4508157459004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.578830543919899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4A01-4131-80C7-7445B6B03AB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>L=10</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metoda 1'!$C$83:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.930698469797001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.150232125594801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.980750761372502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.021272395895799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.271117807010199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.049515858827398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.843286315413899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.7188424936028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.602806165033101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4A01-4131-80C7-7445B6B03AB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -388,26 +454,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -512,28 +558,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -568,24 +594,15 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -727,72 +744,73 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>discrete_events!$B$2:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>discrete_events!$D$2:$D$10</c:f>
+              <c:f>'Metoda 1'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.2955094137071499</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0602199426648302</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1252362548152499</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1799648423428302</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2446814943896798</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0529520726421402</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9325759944588301</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0219016312459202</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1673358172598598</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metoda 1'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5144864264089919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5858536871597448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5374530489608929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5752664705989243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4580427935068148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5538870951156523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5658622498226409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5150483709004519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5267534674882777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,6 +1103,448 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas oczekiwania na przejazd przez bramki względem parametru L</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metoda 2'!$H$6:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.2298305245622148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.968016641243821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.78144309123828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.587581234073568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.299235887185787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.432251180502355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.435799260641481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.398866565873377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.979518784560543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.521410244736657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FBE-4E8B-94D9-5EA5782BE9A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1262361935"/>
+        <c:axId val="1262365263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1262361935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wartoś</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t>ć parametru L</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39463757655293086"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262365263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1262365263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas przejazdu w minutach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1262361935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2201,16 +2661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2237,16 +2697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2266,6 +2726,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A31CF0A-17AE-4302-A3C1-B60F29AD9DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2571,156 +3072,2536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.8693715822209902</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.8258054482526598</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(D2,D11,D20,D29,D38,D47,D56,D65,D74,D83)</f>
+        <v>2.5144864264089919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8915942617733701</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5960963212031598</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(D3,D12,D21,D30,D39,D48,D57,D66,D75,D84)</f>
+        <v>2.5858536871597448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.3569650184129598</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3837328389015502</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">AVERAGE(D4,D13,D22,D31,D40,D49,D58,D67,D76,D85)</f>
+        <v>2.5374530489608929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.0521902791931801</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.7743284401217601</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.5752664705989243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.2886824688018894</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.51938437139246</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.4580427935068148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.9392757961850808</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5805714046120301</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.5538870951156523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>160</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.6415960666817604</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5095929734123299</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.5658622498226409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16.927088287053799</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6925494751474299</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.5150483709004519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.6669381215249</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.67509606453525</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.5267534674882777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6.3129502180504504</v>
+      </c>
+      <c r="D11">
+        <v>2.4139801533124698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>12.3436472521316</v>
+      </c>
+      <c r="D12">
+        <v>2.7049923896239401</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12.415711775157799</v>
+      </c>
+      <c r="D13">
+        <v>2.3300117526560502</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>C5</f>
+        <v>6.0521902791931801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>18.609201213442699</v>
+      </c>
+      <c r="D14">
+        <v>2.68269126655168</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>C14</f>
+        <v>18.609201213442699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>21.697709963302</v>
+      </c>
+      <c r="D15">
+        <v>2.55360135748229</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f>C23</f>
+        <v>23.566606914316001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>27.4545371589588</v>
+      </c>
+      <c r="D16">
+        <v>2.74036002852612</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>C32</f>
+        <v>23.537839406269999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>33.447280892523601</v>
+      </c>
+      <c r="D17">
+        <v>2.7734181240111901</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f>C41</f>
+        <v>24.833242503681401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>34.619547847606903</v>
+      </c>
+      <c r="D18">
+        <v>2.53133538023366</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f>C50</f>
+        <v>24.558636168852701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>30.976145065733</v>
+      </c>
+      <c r="D19">
+        <v>2.3776700111965599</v>
+      </c>
+      <c r="F19" s="3">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f>C59</f>
+        <v>22.390636362608898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.3068116682243396</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.5360693053952899</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f>C68</f>
+        <v>28.895519756464701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13.011437846711701</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.65928477647009</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H21">
+        <f>C77</f>
+        <v>30.863323564742299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20.6658521384661</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.5720667576804099</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>6.6386286563071799</v>
-      </c>
-      <c r="D2">
-        <v>2.2955094137071499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.0523216540849498</v>
-      </c>
-      <c r="D3">
-        <v>2.0602199426648302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12.311476825517101</v>
-      </c>
-      <c r="D4">
-        <v>2.1252362548152499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H22">
+        <f>C86</f>
+        <v>26.021272395895799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12.7901342630456</v>
-      </c>
-      <c r="D5">
-        <v>2.1799648423428302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C23" s="1">
+        <v>23.566606914316001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.6489516919627101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>120</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21.6074444963715</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.1951097400384101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>34.6124385145677</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.6987939964764198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>160</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>35.2545596616757</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.6138618319096101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>180</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40.956437516360502</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.4796959243342802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46.701405158136801</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.53732589696516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19.355809251182698</v>
-      </c>
-      <c r="D6">
-        <v>2.2446814943896798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C29">
+        <v>8.1842300899626093</v>
+      </c>
+      <c r="D29">
+        <v>2.4033930758587201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>13.716730005289699</v>
+      </c>
+      <c r="D30">
+        <v>2.3626750840175501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>20.196577628416598</v>
+      </c>
+      <c r="D31">
+        <v>2.6767151718131399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>23.537839406269999</v>
+      </c>
+      <c r="D32">
+        <v>2.52013684971008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>26.7324059382697</v>
+      </c>
+      <c r="D33">
+        <v>2.37979562122338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>140</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>36.268036473262399</v>
+      </c>
+      <c r="D34">
+        <v>2.5234822946894901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>160</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>39.3580365646377</v>
+      </c>
+      <c r="D35">
+        <v>2.42602510645869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>180</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>42.284434246859</v>
+      </c>
+      <c r="D36">
+        <v>2.4351573567029599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>49.493680192034603</v>
+      </c>
+      <c r="D37">
+        <v>2.5681824335820398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20.539731363924101</v>
-      </c>
-      <c r="D7">
-        <v>2.0529520726421402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C38" s="1">
+        <v>10.9110733854641</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.5712955081811799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>18.3949442984452</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.8174234903814201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>22.088510694507999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.6182682204641199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>24.833242503681401</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.5732016216244999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>34.352588361382203</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.5599463588018199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>140</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>36.7998758288511</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.6693740823223102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42.463024140450202</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.5241328263765599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>180</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42.4508157459004</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.4881537895072801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>200</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>51.578830543919899</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.5410008539355098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16.418550742219001</v>
-      </c>
-      <c r="D8">
-        <v>1.9325759944588301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C47">
+        <v>10.193901380510299</v>
+      </c>
+      <c r="D47">
+        <v>2.6672177640375798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>15.5799747416809</v>
+      </c>
+      <c r="D48">
+        <v>2.5857410895764601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>25.037888154784</v>
+      </c>
+      <c r="D49">
+        <v>2.7704153868074202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>24.558636168852701</v>
+      </c>
+      <c r="D50">
+        <v>2.4876337248830498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>120</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>31.588568906219699</v>
+      </c>
+      <c r="D51">
+        <v>2.4182640047768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>33.623078309362199</v>
+      </c>
+      <c r="D52">
+        <v>2.2868217197873899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>160</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>50.667208679765402</v>
+      </c>
+      <c r="D53">
+        <v>2.88954302453695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>180</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>48.109209929232797</v>
+      </c>
+      <c r="D54">
+        <v>2.4484662800171502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>49.852087727236899</v>
+      </c>
+      <c r="D55">
+        <v>2.39997420674284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>22.8175311599366</v>
-      </c>
-      <c r="D9">
-        <v>2.0219016312459202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C56" s="1">
+        <v>7.91967561504309</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.08864684350314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>14.8424085107425</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.3885054138410999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>21.524018208566101</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.6106485292488202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>22.390636362608898</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.3116910973357299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>32.3934313964673</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.53972070956788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>140</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>36.813056055137203</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.47237414215172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>160</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>41.573407192797099</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.4812708750910701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>49.02202291343</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.6078246333744999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>200</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>54.737888986458003</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.5905066179967799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>40</v>
+      </c>
+      <c r="B65">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>32.687262260678096</v>
-      </c>
-      <c r="D10">
-        <v>2.1673358172598598</v>
+      <c r="C65">
+        <v>10.4630082972414</v>
+      </c>
+      <c r="D65">
+        <v>2.6115183865353799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>13.8798758794417</v>
+      </c>
+      <c r="D66">
+        <v>2.3134062544981999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>19.956136189063201</v>
+      </c>
+      <c r="D67">
+        <v>2.4558920382537099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>28.895519756464701</v>
+      </c>
+      <c r="D68">
+        <v>2.56144943173233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>120</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>30.904971301382599</v>
+      </c>
+      <c r="D69">
+        <v>2.50875559508941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>140</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>42.128645705921997</v>
+      </c>
+      <c r="D70">
+        <v>2.74642009425403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>160</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>41.661225394009499</v>
+      </c>
+      <c r="D71">
+        <v>2.51019136790649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>180</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>52.975981287010697</v>
+      </c>
+      <c r="D72">
+        <v>2.5416579243539501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>200</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>54.801453674919202</v>
+      </c>
+      <c r="D73">
+        <v>2.5289538108632099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>40</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>11.4014798198709</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.65651489165037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1">
+        <v>15.5220691711896</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2.6147590175715201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>20.988999291136199</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.4685366500848702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>100</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>30.863323564742299</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.78909718461597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>120</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1">
+        <v>32.722922949776603</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2.49348312897486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>35.077209355167099</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2.4400299251175701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>160</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44.808759860194002</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2.5252661189903902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>180</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>50.264474187529601</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2.5144079381661499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>58.944594625978702</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2.6129212539264302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>10.930698469797001</v>
+      </c>
+      <c r="D83">
+        <v>2.3704228873631301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>60</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>19.150232125594801</v>
+      </c>
+      <c r="D84">
+        <v>2.81565303441401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>21.980750761372502</v>
+      </c>
+      <c r="D85">
+        <v>2.4882431436988401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>26.021272395895799</v>
+      </c>
+      <c r="D86">
+        <v>2.40348339745143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>120</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>31.271117807010199</v>
+      </c>
+      <c r="D87">
+        <v>2.4123670477208399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>140</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.049515858827398</v>
+      </c>
+      <c r="D88">
+        <v>2.3806432632194401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>160</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>42.843286315413899</v>
+      </c>
+      <c r="D89">
+        <v>2.4053202495331298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>180</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>49.7188424936028</v>
+      </c>
+      <c r="D90">
+        <v>2.4112350071671602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>200</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>55.602806165033101</v>
+      </c>
+      <c r="D91">
+        <v>2.435903525139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82AC960-37FC-455B-BC08-591FCC1C2958}">
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.7788113160226402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5.9080604811534396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4.4676117554980701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6.1138021996531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7.0952924393310504</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C2:C10)</f>
+        <v>6.2298305245622148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10.4664222489965</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(C11:C19)</f>
+        <v>17.968016641243821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8.8867514173806406</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(C20:C28)</f>
+        <v>22.78144309123828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4.4242707370536101</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(C29:C37)</f>
+        <v>25.587581234073568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2.9274521259708899</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(C38:C46)</f>
+        <v>24.299235887185787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>19.187632565465801</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(C47:C55)</f>
+        <v>26.432251180502355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>17.369447595843098</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(C56:C64)</f>
+        <v>28.435799260641481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>19.923793407533999</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(C65:C73)</f>
+        <v>27.398866565873377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>16.870973186261001</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(C74:C82)</f>
+        <v>28.979518784560543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>16.7163103664662</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(C83:C91)</f>
+        <v>28.521410244736657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>18.838701040228901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>14.4993774458095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>21.511263032056799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>16.7946511315291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>20.931131918760599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>22.595181913554899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>23.261053171525099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>23.786438713778502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>21.986793016132701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>22.314273980695301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>21.435428476726901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>24.0172675365976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>24.7054190933729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>25.750721411573601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>27.680431501268298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>23.5897562617426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>25.736633271118802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>29.022612854053499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>23.525520869012301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>24.905756477449799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>25.848616060792398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>24.228182399650802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>23.6700173076648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>24.257136500594999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>24.535976694198801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>22.945418438211799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>24.227151361083301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>24.8183620109189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>22.111410967204101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>28.258897632296001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>23.868752072499401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>25.325473400079002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>28.2420068604651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>29.326420640896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>24.526099463886901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>22.469687647809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>30.822754962852901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>27.8354947834823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>24.3888694551115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>24.953453409938501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>31.7278903963937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>32.177425671920403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>28.964095945232501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>29.4475750101793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>25.192955572900701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>23.866972161885901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>29.7424842761516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>100</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>29.501118668852801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>25.301675642256399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>25.9574697363282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>25.416275893759199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>29.227222406324099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>24.8969056260926</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>27.585126288234399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>100</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>29.067572045407498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>27.864277644159699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>31.911699699009301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>100</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>24.663249753545401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>28.619710059370298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>100</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>27.527870166303099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>32.4303319565648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>29.999034490684501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>28.577398285961898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>100</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>31.309095418400599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>26.038795073882302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>100</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>25.883398525816801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>30.430035084060599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>100</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>27.721688916466899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>100</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>27.9431528091222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>25.271102028743702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>29.001713944086202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>100</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>28.568723182314301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>31.568759753790602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>30.143170494278699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>29.071134516258901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>27.403246557568401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H6:H15" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>